--- a/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>ILAL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -722,14 +729,14 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -742,22 +749,28 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -771,23 +784,29 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1036,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1037,10 +1104,16 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,17 +1121,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1068,8 +1141,14 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1162,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1092,42 +1171,54 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1385,39 +1524,51 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1705,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1543,28 +1716,34 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,19 +1841,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -1679,37 +1876,49 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,25 +1946,31 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,23 +2086,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,16 +2225,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -1992,115 +2253,139 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>500</v>
       </c>
       <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
+        <v>500</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -2109,10 +2394,16 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,16 +2656,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2649,11 +3046,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3236,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2818,28 +3251,34 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,16 +3290,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2869,19 +3310,25 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2947,17 +3406,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,26 +3651,32 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -3181,6 +3684,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>ILAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -735,11 +739,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,14 +773,14 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,15 +811,15 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,34 +927,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -945,8 +965,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1018,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1066,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,11 +1120,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1110,10 +1144,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,20 +1158,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1168,57 +1208,63 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,11 +1576,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1530,45 +1600,51 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,29 +1793,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1739,11 +1826,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,22 +1943,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -1882,29 +1981,32 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -1914,11 +2016,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1964,7 +2072,7 @@
         <v>1400</v>
       </c>
       <c r="F48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
@@ -1972,8 +2080,8 @@
       <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>1100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2104,13 +2224,13 @@
         <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2285,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E54" s="3">
         <v>2200</v>
       </c>
       <c r="F54" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="G54" s="3">
         <v>1800</v>
       </c>
       <c r="H54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2194,11 +2320,14 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,20 +2357,21 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -2259,66 +2390,72 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -2327,33 +2464,36 @@
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
@@ -2362,33 +2502,36 @@
         <v>500</v>
       </c>
       <c r="L60" s="3">
+        <v>500</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
         <v>1100</v>
       </c>
       <c r="F61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -2400,10 +2543,13 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
       </c>
       <c r="K66" s="3">
+        <v>600</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,7 +2842,7 @@
         <v>300</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
       </c>
       <c r="G76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-500</v>
       </c>
       <c r="K76" s="3">
         <v>-500</v>
       </c>
       <c r="L76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3052,8 +3251,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,34 +3512,35 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,20 +3636,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,29 +3906,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>ILAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,11 +746,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,14 +783,14 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,15 +824,15 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,37 +947,40 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -968,8 +988,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1045,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1096,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1123,11 +1157,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1147,10 +1181,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,23 +1195,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1211,60 +1251,66 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1579,11 +1649,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1603,48 +1673,54 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,32 +1880,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -1829,11 +1916,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1955,16 +2054,16 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -1984,32 +2083,35 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2019,11 +2121,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2075,7 +2183,7 @@
         <v>1400</v>
       </c>
       <c r="G48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="H48" s="3">
         <v>1100</v>
@@ -2083,8 +2191,8 @@
       <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>1100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2227,13 +2347,13 @@
         <v>700</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>600</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,32 +2411,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2200</v>
       </c>
       <c r="F54" s="3">
         <v>2200</v>
       </c>
       <c r="G54" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="H54" s="3">
         <v>1800</v>
       </c>
       <c r="I54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2323,11 +2449,14 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2367,14 +2498,14 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2393,49 +2524,55 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>800</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
       </c>
       <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2443,22 +2580,22 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -2467,36 +2604,39 @@
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
@@ -2505,36 +2645,39 @@
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>1100</v>
       </c>
       <c r="G61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -2546,10 +2689,13 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
       </c>
       <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,7 +3013,7 @@
         <v>300</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
       </c>
       <c r="H76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-500</v>
       </c>
       <c r="L76" s="3">
         <v>-500</v>
       </c>
       <c r="M76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3254,8 +3453,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3468,37 +3685,40 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,26 +3745,26 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3639,20 +3869,20 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,32 +4158,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>ILAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,11 +752,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,14 +792,14 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,15 +836,15 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -961,29 +980,29 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1160,11 +1193,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1184,10 +1217,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,26 +1231,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,13 +1263,16 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1254,63 +1293,69 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1652,11 +1721,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1676,51 +1745,57 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1890,26 +1976,26 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -1919,11 +2005,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,28 +2140,31 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2086,35 +2184,38 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2124,11 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,13 +2272,16 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="3">
         <v>1400</v>
@@ -2186,7 +2293,7 @@
         <v>1400</v>
       </c>
       <c r="H48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="I48" s="3">
         <v>1100</v>
@@ -2194,8 +2301,8 @@
       <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>1100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2350,13 +2469,13 @@
         <v>700</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2200</v>
       </c>
       <c r="G54" s="3">
         <v>2200</v>
       </c>
       <c r="H54" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I54" s="3">
         <v>1800</v>
       </c>
       <c r="J54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2452,11 +2577,14 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,26 +2618,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -2527,52 +2657,58 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>800</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2583,22 +2719,22 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
@@ -2607,39 +2743,42 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
@@ -2648,39 +2787,42 @@
         <v>500</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1100</v>
       </c>
       <c r="G61" s="3">
         <v>1100</v>
       </c>
       <c r="H61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -2692,10 +2834,13 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
       </c>
       <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3016,7 +3183,7 @@
         <v>300</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
       </c>
       <c r="I76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-500</v>
       </c>
       <c r="N76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3456,8 +3654,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,13 +3953,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -3748,26 +3968,26 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,13 +4083,16 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3872,20 +4101,20 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>300</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4170,26 +4421,26 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>ILAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,11 +759,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,14 +802,14 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,15 +849,15 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +986,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -983,29 +1003,29 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1196,11 +1230,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1220,10 +1254,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,29 +1268,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,16 +1303,19 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1296,66 +1336,72 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1724,11 +1794,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1748,54 +1818,60 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2008,11 +2095,14 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,22 +2251,22 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2187,38 +2286,41 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2228,11 +2330,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,16 +2380,19 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1400</v>
       </c>
       <c r="F48" s="3">
         <v>1400</v>
@@ -2296,7 +2404,7 @@
         <v>1400</v>
       </c>
       <c r="I48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="J48" s="3">
         <v>1100</v>
@@ -2304,8 +2412,8 @@
       <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>1100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2472,13 +2592,13 @@
         <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>600</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2200</v>
       </c>
       <c r="H54" s="3">
         <v>2200</v>
       </c>
       <c r="I54" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="J54" s="3">
         <v>1800</v>
       </c>
       <c r="K54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2580,11 +2706,14 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,20 +2759,20 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -2660,60 +2791,66 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>800</v>
       </c>
       <c r="H58" s="3">
         <v>800</v>
       </c>
       <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2722,22 +2859,22 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
@@ -2746,42 +2883,45 @@
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
@@ -2790,42 +2930,45 @@
         <v>500</v>
       </c>
       <c r="O60" s="3">
+        <v>500</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1100</v>
       </c>
       <c r="H61" s="3">
         <v>1100</v>
       </c>
       <c r="I61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -2837,10 +2980,13 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
       <c r="N66" s="3">
+        <v>600</v>
+      </c>
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,7 +3354,7 @@
         <v>300</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
       </c>
       <c r="J76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-500</v>
       </c>
       <c r="N76" s="3">
         <v>-500</v>
       </c>
       <c r="O76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3657,8 +3856,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4174,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -3971,26 +4192,26 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,7 +4325,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4104,20 +4334,20 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,38 +4661,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>ILAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,86 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,14 +770,14 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -782,8 +790,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,17 +819,17 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -829,8 +843,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,18 +872,18 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,8 +896,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1023,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1151,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1215,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1233,14 +1301,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1257,10 +1325,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,35 +1342,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,8 +1380,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,13 +1395,13 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1339,7 +1419,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1348,60 +1428,72 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1797,14 +1937,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1821,57 +1961,69 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,22 +2226,24 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2081,28 +2255,34 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,31 +2328,37 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2195,8 +2381,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2434,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,25 +2452,25 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2289,78 +2487,90 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>2700</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2383,22 +2593,28 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1400</v>
       </c>
       <c r="H48" s="3">
         <v>1400</v>
@@ -2407,19 +2623,19 @@
         <v>1400</v>
       </c>
       <c r="J48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2430,8 +2646,14 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2805,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2595,17 +2835,17 @@
         <v>700</v>
       </c>
       <c r="J52" s="3">
+        <v>700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>700</v>
+      </c>
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,19 +2911,25 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F54" s="3">
         <v>2600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2200</v>
       </c>
       <c r="G54" s="3">
         <v>2400</v>
@@ -2686,34 +2938,40 @@
         <v>2200</v>
       </c>
       <c r="I54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,35 +3010,37 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2794,58 +3056,70 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,46 +3127,52 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,46 +3180,52 @@
         <v>2300</v>
       </c>
       <c r="E60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,34 +3233,34 @@
         <v>1700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F61" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="G61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>1100</v>
       </c>
       <c r="I61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L61" s="3">
         <v>900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>700</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -2983,10 +3269,16 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,10 +3693,10 @@
         <v>300</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3859,11 +4257,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-700</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-300</v>
-      </c>
       <c r="I89" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,46 +4626,52 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,44 +4770,50 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,22 +5162,28 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
@@ -4688,20 +5192,20 @@
         <v>200</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +5213,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>ILAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,94 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -776,11 +779,11 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -796,13 +799,16 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -825,14 +831,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -849,13 +855,16 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>400</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -878,15 +887,15 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,8 +1062,8 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1052,29 +1071,29 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1000</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,16 +1312,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1307,11 +1340,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1331,49 +1364,52 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1200</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,16 +1434,16 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1425,75 +1464,81 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,16 +1982,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1943,11 +2012,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1967,63 +2036,69 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2278,11 +2364,14 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,17 +2423,20 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2360,8 +2452,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,13 +2535,16 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2458,22 +2556,22 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2493,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2543,22 +2644,25 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>2700</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2572,8 +2676,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2599,25 +2703,28 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1400</v>
       </c>
       <c r="I48" s="3">
         <v>1400</v>
@@ -2629,7 +2736,7 @@
         <v>1400</v>
       </c>
       <c r="L48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="M48" s="3">
         <v>1100</v>
@@ -2637,8 +2744,8 @@
       <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>1100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,13 +2927,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>700</v>
@@ -2841,13 +2960,13 @@
         <v>700</v>
       </c>
       <c r="L52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>600</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2200</v>
       </c>
       <c r="K54" s="3">
         <v>2200</v>
       </c>
       <c r="L54" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M54" s="3">
         <v>1800</v>
       </c>
       <c r="N54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -2967,11 +3092,14 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,38 +3141,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
       </c>
       <c r="F57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3062,78 +3192,84 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>800</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
       </c>
       <c r="L58" s="3">
+        <v>800</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3142,22 +3278,22 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
@@ -3166,51 +3302,54 @@
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
@@ -3219,13 +3358,16 @@
         <v>500</v>
       </c>
       <c r="R60" s="3">
+        <v>500</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3239,31 +3381,31 @@
         <v>1700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1100</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
       </c>
       <c r="L61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3275,10 +3417,13 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
       <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3699,7 +3866,7 @@
         <v>300</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
       </c>
       <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-500</v>
       </c>
       <c r="Q76" s="3">
         <v>-500</v>
       </c>
       <c r="R76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4263,8 +4461,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4552,52 +4768,55 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,25 +4836,26 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>-100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4643,26 +4863,26 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,16 +5002,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -4794,7 +5023,7 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4803,20 +5032,20 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
-      </c>
-      <c r="R100" s="3">
-        <v>300</v>
       </c>
       <c r="S100" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,47 +5416,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>ILAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,109 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -782,14 +790,14 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -802,20 +810,26 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -834,17 +848,17 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -858,20 +872,26 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -890,18 +910,18 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,47 +1105,53 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1231,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,111 +1242,123 @@
         <v>1500</v>
       </c>
       <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,23 +1379,25 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1343,14 +1411,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1367,55 +1435,61 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,22 +1514,22 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1467,7 +1547,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1476,69 +1556,81 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,23 +2119,29 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2015,14 +2155,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2039,66 +2179,78 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,31 +2486,33 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2350,28 +2524,34 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,14 +2621,14 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2455,11 +2641,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,19 +2730,25 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -2559,25 +2757,25 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2594,82 +2792,94 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E47" s="3">
         <v>2600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2679,11 +2889,11 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2706,31 +2916,37 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1400</v>
       </c>
       <c r="K48" s="3">
         <v>1400</v>
@@ -2739,19 +2955,19 @@
         <v>1400</v>
       </c>
       <c r="M48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="N48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1100</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,10 +3179,10 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -2963,17 +3203,17 @@
         <v>700</v>
       </c>
       <c r="M52" s="3">
+        <v>700</v>
+      </c>
+      <c r="N52" s="3">
+        <v>700</v>
+      </c>
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3288,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,19 +3303,19 @@
         <v>5900</v>
       </c>
       <c r="E54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G54" s="3">
         <v>6200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2200</v>
       </c>
       <c r="J54" s="3">
         <v>2400</v>
@@ -3072,34 +3324,40 @@
         <v>2200</v>
       </c>
       <c r="L54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3402,46 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3195,131 +3457,149 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2700</v>
+        <v>5000</v>
       </c>
       <c r="E60" s="3">
-        <v>2300</v>
+        <v>4500</v>
       </c>
       <c r="F60" s="3">
         <v>2700</v>
@@ -3328,54 +3608,60 @@
         <v>2300</v>
       </c>
       <c r="H60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
       <c r="S60" s="3">
+        <v>500</v>
+      </c>
+      <c r="T60" s="3">
+        <v>500</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>1700</v>
@@ -3384,34 +3670,34 @@
         <v>1700</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="I61" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="J61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
       </c>
       <c r="L61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O61" s="3">
         <v>900</v>
-      </c>
-      <c r="N61" s="3">
-        <v>100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>700</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -3420,10 +3706,16 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,10 +4205,10 @@
         <v>300</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4464,11 +4862,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-700</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
       <c r="L89" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,53 +5459,59 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,55 +5808,61 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,31 +5917,37 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>200</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
@@ -5452,20 +5956,20 @@
         <v>200</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>ILAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,11 +770,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -796,11 +800,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,12 +834,12 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -854,14 +861,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,12 +899,12 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -916,15 +926,15 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1111,8 +1131,8 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1120,29 +1140,29 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,70 +1259,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,61 +1334,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,17 +1424,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1417,11 +1451,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1441,10 +1475,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,47 +1489,47 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,34 +1542,37 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1553,84 +1593,90 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1500</v>
       </c>
       <c r="F23" s="3">
         <v>-1500</v>
       </c>
       <c r="G23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1500</v>
       </c>
       <c r="F26" s="3">
         <v>-1500</v>
       </c>
       <c r="G26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1500</v>
       </c>
       <c r="F27" s="3">
         <v>-1500</v>
       </c>
       <c r="G27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,17 +2204,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2161,11 +2231,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2185,72 +2255,78 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1500</v>
       </c>
       <c r="F33" s="3">
         <v>-1500</v>
       </c>
       <c r="G33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1500</v>
       </c>
       <c r="F35" s="3">
         <v>-1500</v>
       </c>
       <c r="G35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2574,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2547,11 +2634,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,13 +2702,16 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2627,11 +2720,11 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2647,8 +2740,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2748,10 +2847,10 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2763,22 +2862,22 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2798,56 +2897,59 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -2857,31 +2959,34 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2600</v>
       </c>
       <c r="F47" s="3">
         <v>2600</v>
       </c>
       <c r="G47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H47" s="3">
         <v>2700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>2700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -2895,8 +3000,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2922,34 +3027,37 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1400</v>
       </c>
       <c r="L48" s="3">
         <v>1400</v>
@@ -2961,7 +3069,7 @@
         <v>1400</v>
       </c>
       <c r="O48" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="P48" s="3">
         <v>1100</v>
@@ -2969,8 +3077,8 @@
       <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>1100</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3185,7 +3305,7 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
@@ -3209,13 +3329,13 @@
         <v>700</v>
       </c>
       <c r="O52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>600</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2200</v>
       </c>
       <c r="N54" s="3">
         <v>2200</v>
       </c>
       <c r="O54" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="P54" s="3">
         <v>1800</v>
       </c>
       <c r="Q54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3353,11 +3479,14 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,47 +3534,48 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
       </c>
       <c r="I57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3463,96 +3594,102 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>800</v>
       </c>
       <c r="N58" s="3">
         <v>800</v>
       </c>
       <c r="O58" s="3">
+        <v>800</v>
+      </c>
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3561,22 +3698,22 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -3585,60 +3722,63 @@
         <v>400</v>
       </c>
       <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
@@ -3647,13 +3787,16 @@
         <v>500</v>
       </c>
       <c r="U60" s="3">
+        <v>500</v>
+      </c>
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3664,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>1700</v>
@@ -3676,31 +3819,31 @@
         <v>1700</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1100</v>
       </c>
       <c r="N61" s="3">
         <v>1100</v>
       </c>
       <c r="O61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P61" s="3">
         <v>900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
-      </c>
-      <c r="R61" s="3">
-        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -3712,10 +3855,13 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4500</v>
       </c>
       <c r="F66" s="3">
         <v>4500</v>
       </c>
       <c r="G66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>600</v>
       </c>
       <c r="T66" s="3">
+        <v>600</v>
+      </c>
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4211,7 +4379,7 @@
         <v>300</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
       </c>
       <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-500</v>
       </c>
       <c r="T76" s="3">
         <v>-500</v>
       </c>
       <c r="U76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1500</v>
       </c>
       <c r="F81" s="3">
         <v>-1500</v>
       </c>
       <c r="G81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4868,8 +5067,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,16 +5407,19 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
@@ -5211,52 +5428,55 @@
         <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
       </c>
       <c r="V89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,34 +5499,35 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>-100</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5314,26 +5535,26 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,25 +5692,28 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -5492,7 +5722,7 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5501,20 +5731,20 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
-      </c>
-      <c r="U100" s="3">
-        <v>300</v>
       </c>
       <c r="V100" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,56 +6172,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILAL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,136 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -803,17 +814,17 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -823,32 +834,41 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -864,20 +884,20 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -888,32 +908,41 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -929,21 +958,21 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -953,8 +982,17 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +1016,11 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1084,17 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,58 +1158,67 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1170,11 +1229,20 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1306,17 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1337,159 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>500</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-700</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="R18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,35 +1513,38 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1454,17 +1555,17 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1478,89 +1579,107 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-500</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
-        <v>200</v>
-      </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1572,16 +1691,16 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1596,57 +1715,66 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-1900</v>
       </c>
       <c r="F23" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-800</v>
       </c>
       <c r="O23" s="3">
         <v>-700</v>
@@ -1655,28 +1783,37 @@
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1877,17 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,43 +1951,52 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-1900</v>
       </c>
       <c r="F26" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-800</v>
       </c>
       <c r="O26" s="3">
         <v>-700</v>
@@ -1850,63 +2005,72 @@
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-1900</v>
       </c>
       <c r="F27" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-800</v>
       </c>
       <c r="O27" s="3">
         <v>-700</v>
@@ -1915,28 +2079,37 @@
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2173,17 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2247,17 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2321,17 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,35 +2395,44 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2234,17 +2443,17 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2258,45 +2467,54 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-1900</v>
       </c>
       <c r="F33" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-800</v>
       </c>
       <c r="O33" s="3">
         <v>-700</v>
@@ -2305,28 +2523,37 @@
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,43 +2617,52 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-1900</v>
       </c>
       <c r="F35" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-800</v>
       </c>
       <c r="O35" s="3">
         <v>-700</v>
@@ -2435,98 +2671,116 @@
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2804,11 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,8 +2832,11 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2584,64 +2844,73 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,35 +2974,44 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2743,14 +3021,14 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2770,8 +3048,17 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,22 +3122,31 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2859,34 +3155,34 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>200</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -2900,117 +3196,135 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>2400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>2600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>2600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>2700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>2700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3030,73 +3344,91 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1400</v>
       </c>
       <c r="O48" s="3">
         <v>1400</v>
       </c>
       <c r="P48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>1100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3492,17 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3566,17 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,31 +3640,40 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>700</v>
@@ -3332,20 +3691,20 @@
         <v>700</v>
       </c>
       <c r="P52" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>700</v>
+      </c>
+      <c r="R52" s="3">
+        <v>700</v>
+      </c>
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3355,8 +3714,17 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3788,91 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G54" s="3">
         <v>6100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>5900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>6000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>5900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>6200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>2400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2200</v>
       </c>
       <c r="O54" s="3">
         <v>2200</v>
       </c>
       <c r="P54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3896,11 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3924,11 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3544,47 +3936,47 @@
         <v>1800</v>
       </c>
       <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
@@ -3597,206 +3989,242 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1000</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
       </c>
       <c r="N58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3810,58 +4238,67 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>1700</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="L61" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="M61" s="3">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="N61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>1100</v>
       </c>
       <c r="P61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S61" s="3">
         <v>900</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>100</v>
-      </c>
-      <c r="R61" s="3">
-        <v>700</v>
-      </c>
-      <c r="S61" s="3">
-        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4362,17 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4436,17 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4510,17 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4584,91 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4692,11 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4760,17 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,13 +4834,22 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E70" s="3">
         <v>300</v>
@@ -4382,13 +4885,13 @@
         <v>300</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4405,8 +4908,17 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4982,91 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-19000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-18100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-16200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-14700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-13200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-12600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-10600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-9600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-8300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-7800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-7000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-5800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-5600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-5400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-5300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-5100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-4900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +5130,17 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5204,17 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5278,91 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,113 +5426,131 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-1900</v>
       </c>
       <c r="F81" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-800</v>
       </c>
       <c r="O81" s="3">
         <v>-700</v>
@@ -4975,28 +5559,37 @@
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5613,11 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5032,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5070,14 +5666,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
@@ -5085,8 +5681,17 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5755,17 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5829,17 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5903,17 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5977,17 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,34 +6051,43 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-700</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -5446,37 +6096,46 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="O89" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +6159,85 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6301,17 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,22 +6375,31 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-200</v>
-      </c>
       <c r="F94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -5719,49 +6408,58 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6483,11 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6551,17 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6625,17 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6699,17 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,46 +6773,55 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
-      </c>
       <c r="O100" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
@@ -6093,25 +6830,34 @@
         <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S100" s="3">
+        <v>300</v>
+      </c>
+      <c r="T100" s="3">
+        <v>200</v>
+      </c>
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6921,87 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>200</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
